--- a/media/excel_uploads/58 CONTAINER 2024.xlsx
+++ b/media/excel_uploads/58 CONTAINER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\newData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DB9FD-E93F-4C6E-AF48-5414E3D5314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49412071-6ECB-4D19-AD0C-2FA663C19BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,24 +19,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'58'!$B$2:$Q$220</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="284">
   <si>
     <t>A</t>
   </si>
@@ -892,6 +879,12 @@
   </si>
   <si>
     <t>Company E</t>
+  </si>
+  <si>
+    <t>rishabh123</t>
+  </si>
+  <si>
+    <t>Risabh</t>
   </si>
 </sst>
 </file>
@@ -904,7 +897,7 @@
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="167" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,6 +956,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1415,47 +1414,77 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1484,76 +1513,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4929,8 +4928,8 @@
   <dimension ref="A1:Q220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
+      <pane ySplit="2" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4957,47 +4956,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="329.85" hidden="1" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="69.95" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="1:17" ht="38.85" customHeight="1">
       <c r="A3" s="46" t="s">
@@ -5081,11 +5080,11 @@
         <v>21</v>
       </c>
       <c r="L4" s="47">
-        <f t="shared" ref="L4:L6" si="1">0.65*0.28*0.39</f>
+        <f>0.65*0.28*0.39</f>
         <v>7.0980000000000015E-2</v>
       </c>
       <c r="M4" s="47">
-        <f t="shared" ref="M4:M6" si="2">L4*H4</f>
+        <f t="shared" ref="M4:M6" si="1">L4*H4</f>
         <v>0.85176000000000018</v>
       </c>
       <c r="N4" s="48"/>
@@ -5093,7 +5092,7 @@
         <v>31.4</v>
       </c>
       <c r="P4" s="49">
-        <f t="shared" ref="P4:P6" si="3">O4*H4</f>
+        <f t="shared" ref="P4:P6" si="2">O4*H4</f>
         <v>376.79999999999995</v>
       </c>
       <c r="Q4" s="87" t="s">
@@ -5130,11 +5129,11 @@
         <v>21</v>
       </c>
       <c r="L5" s="47">
+        <f t="shared" ref="L4:L6" si="3">0.65*0.28*0.39</f>
+        <v>7.0980000000000015E-2</v>
+      </c>
+      <c r="M5" s="47">
         <f t="shared" si="1"/>
-        <v>7.0980000000000015E-2</v>
-      </c>
-      <c r="M5" s="47">
-        <f t="shared" si="2"/>
         <v>3.5490000000000008</v>
       </c>
       <c r="N5" s="48"/>
@@ -5142,7 +5141,7 @@
         <v>32.4</v>
       </c>
       <c r="P5" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1620</v>
       </c>
       <c r="Q5" s="87" t="s">
@@ -5179,11 +5178,11 @@
         <v>21</v>
       </c>
       <c r="L6" s="47">
+        <f t="shared" si="3"/>
+        <v>7.0980000000000015E-2</v>
+      </c>
+      <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>7.0980000000000015E-2</v>
-      </c>
-      <c r="M6" s="47">
-        <f t="shared" si="2"/>
         <v>3.5490000000000008</v>
       </c>
       <c r="N6" s="48">
@@ -5194,7 +5193,7 @@
         <v>33.4</v>
       </c>
       <c r="P6" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1670</v>
       </c>
       <c r="Q6" s="87" t="s">
@@ -5366,7 +5365,7 @@
       <c r="A12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="94" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -5416,7 +5415,7 @@
       <c r="A13" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="136"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="14" t="s">
         <v>34</v>
       </c>
@@ -5514,7 +5513,7 @@
       <c r="A15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="96" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -5564,7 +5563,7 @@
       <c r="A16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="138"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
@@ -5633,20 +5632,20 @@
       <c r="A18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="98" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="109" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="115"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="18">
         <v>5</v>
       </c>
@@ -5683,16 +5682,16 @@
       <c r="A19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="132"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="123"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="118"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="18">
         <v>1</v>
       </c>
@@ -5779,20 +5778,20 @@
       <c r="A21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="98" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="109" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="115"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="18">
         <v>2</v>
       </c>
@@ -5829,16 +5828,16 @@
       <c r="A22" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="124"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="118"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="18">
         <v>1</v>
       </c>
@@ -5875,20 +5874,20 @@
       <c r="A23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="98" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="109" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="115"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="18">
         <v>5</v>
       </c>
@@ -5925,16 +5924,16 @@
       <c r="A24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="132"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="123"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="118"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="18">
         <v>1</v>
       </c>
@@ -5971,20 +5970,20 @@
       <c r="A25" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="98" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="109" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="115"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="18">
         <v>5</v>
       </c>
@@ -6021,16 +6020,16 @@
       <c r="A26" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="123"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="118"/>
+      <c r="G26" s="102"/>
       <c r="H26" s="18">
         <v>1</v>
       </c>
@@ -6067,20 +6066,20 @@
       <c r="A27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="98" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="109" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="115"/>
+      <c r="G27" s="101"/>
       <c r="H27" s="18">
         <v>5</v>
       </c>
@@ -6117,16 +6116,16 @@
       <c r="A28" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="132"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="110"/>
       <c r="E28" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="116"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="18">
         <v>1</v>
       </c>
@@ -6163,20 +6162,20 @@
       <c r="A29" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="98" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="109" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="115"/>
+      <c r="G29" s="101"/>
       <c r="H29" s="18">
         <v>5</v>
       </c>
@@ -6213,16 +6212,16 @@
       <c r="A30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="124"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="116"/>
+      <c r="G30" s="114"/>
       <c r="H30" s="18">
         <v>1</v>
       </c>
@@ -6259,20 +6258,20 @@
       <c r="A31" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="98" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="109" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="116"/>
+      <c r="G31" s="114"/>
       <c r="H31" s="18">
         <v>5</v>
       </c>
@@ -6309,16 +6308,16 @@
       <c r="A32" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="116"/>
+      <c r="G32" s="114"/>
       <c r="H32" s="18">
         <v>1</v>
       </c>
@@ -6355,20 +6354,20 @@
       <c r="A33" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="98" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="109" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="117"/>
+      <c r="G33" s="115"/>
       <c r="H33" s="18">
         <v>5</v>
       </c>
@@ -6405,16 +6404,16 @@
       <c r="A34" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="132"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="123"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="117"/>
+      <c r="G34" s="115"/>
       <c r="H34" s="18">
         <v>1</v>
       </c>
@@ -6451,20 +6450,20 @@
       <c r="A35" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="98" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="109" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="117"/>
+      <c r="G35" s="115"/>
       <c r="H35" s="18">
         <v>5</v>
       </c>
@@ -6501,18 +6500,18 @@
       <c r="A36" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="99" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="123"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="117"/>
+      <c r="G36" s="115"/>
       <c r="H36" s="18">
         <v>1</v>
       </c>
@@ -6599,20 +6598,20 @@
       <c r="A38" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="98" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="115"/>
+      <c r="G38" s="101"/>
       <c r="H38" s="18">
         <v>1</v>
       </c>
@@ -6649,16 +6648,16 @@
       <c r="A39" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="132"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="123"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="116"/>
+      <c r="G39" s="114"/>
       <c r="H39" s="18">
         <v>1</v>
       </c>
@@ -6695,20 +6694,20 @@
       <c r="A40" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="98" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="109" t="s">
         <v>63</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="116"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="18">
         <v>1</v>
       </c>
@@ -6745,16 +6744,16 @@
       <c r="A41" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="132"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="123"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="116"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="18">
         <v>1</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>36</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="116"/>
+      <c r="G42" s="114"/>
       <c r="H42" s="18">
         <v>4</v>
       </c>
@@ -6841,20 +6840,20 @@
       <c r="A43" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="98" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="122" t="s">
+      <c r="D43" s="109" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="116"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="18">
         <v>3</v>
       </c>
@@ -6891,16 +6890,16 @@
       <c r="A44" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="132"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="123"/>
+      <c r="D44" s="110"/>
       <c r="E44" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="116"/>
+      <c r="G44" s="114"/>
       <c r="H44" s="18">
         <v>1</v>
       </c>
@@ -6937,20 +6936,20 @@
       <c r="A45" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="98" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="122" t="s">
+      <c r="D45" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="115"/>
+      <c r="G45" s="101"/>
       <c r="H45" s="18">
         <v>1</v>
       </c>
@@ -6987,16 +6986,16 @@
       <c r="A46" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="132"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="123"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="116"/>
+      <c r="G46" s="114"/>
       <c r="H46" s="18">
         <v>1</v>
       </c>
@@ -7033,20 +7032,20 @@
       <c r="A47" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="98" t="s">
         <v>68</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="122" t="s">
+      <c r="D47" s="109" t="s">
         <v>63</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="116"/>
+      <c r="G47" s="114"/>
       <c r="H47" s="18">
         <v>1</v>
       </c>
@@ -7083,16 +7082,16 @@
       <c r="A48" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="131"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="124"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="116"/>
+      <c r="G48" s="114"/>
       <c r="H48" s="18">
         <v>1</v>
       </c>
@@ -7129,20 +7128,20 @@
       <c r="A49" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="98" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="122" t="s">
+      <c r="D49" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="115"/>
+      <c r="G49" s="101"/>
       <c r="H49" s="18">
         <v>1</v>
       </c>
@@ -7179,16 +7178,16 @@
       <c r="A50" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="132"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="123"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="116"/>
+      <c r="G50" s="114"/>
       <c r="H50" s="18">
         <v>1</v>
       </c>
@@ -7225,20 +7224,20 @@
       <c r="A51" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="131" t="s">
+      <c r="B51" s="100" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="124" t="s">
+      <c r="D51" s="111" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="116"/>
+      <c r="G51" s="114"/>
       <c r="H51" s="18">
         <v>1</v>
       </c>
@@ -7275,16 +7274,16 @@
       <c r="A52" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="132"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="123"/>
+      <c r="D52" s="110"/>
       <c r="E52" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="118"/>
+      <c r="G52" s="102"/>
       <c r="H52" s="18">
         <v>1</v>
       </c>
@@ -7321,20 +7320,20 @@
       <c r="A53" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="98" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="122" t="s">
+      <c r="D53" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="115"/>
+      <c r="G53" s="101"/>
       <c r="H53" s="18">
         <v>1</v>
       </c>
@@ -7371,16 +7370,16 @@
       <c r="A54" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="132"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="123"/>
+      <c r="D54" s="110"/>
       <c r="E54" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="116"/>
+      <c r="G54" s="114"/>
       <c r="H54" s="18">
         <v>1</v>
       </c>
@@ -7430,7 +7429,7 @@
         <v>36</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="116"/>
+      <c r="G55" s="114"/>
       <c r="H55" s="18">
         <v>1</v>
       </c>
@@ -7905,7 +7904,7 @@
       <c r="A66" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="100" t="s">
         <v>88</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -7919,7 +7918,7 @@
       </c>
       <c r="F66" s="59"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="109">
+      <c r="H66" s="119">
         <v>2</v>
       </c>
       <c r="I66" s="59">
@@ -7931,18 +7930,18 @@
       <c r="K66" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L66" s="100">
+      <c r="L66" s="130">
         <v>0.02</v>
       </c>
-      <c r="M66" s="100">
+      <c r="M66" s="130">
         <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="N66" s="60"/>
-      <c r="O66" s="94">
+      <c r="O66" s="136">
         <v>62.52</v>
       </c>
-      <c r="P66" s="94">
+      <c r="P66" s="136">
         <v>62.52</v>
       </c>
       <c r="Q66" s="87" t="s">
@@ -7953,7 +7952,7 @@
       <c r="A67" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="131"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="14" t="s">
         <v>34</v>
       </c>
@@ -7965,7 +7964,7 @@
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="109"/>
+      <c r="H67" s="119"/>
       <c r="I67" s="15">
         <v>13.5</v>
       </c>
@@ -7975,11 +7974,11 @@
       <c r="K67" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
+      <c r="L67" s="131"/>
+      <c r="M67" s="131"/>
       <c r="N67" s="48"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
+      <c r="O67" s="136"/>
+      <c r="P67" s="136"/>
       <c r="Q67" s="87" t="s">
         <v>27</v>
       </c>
@@ -7988,7 +7987,7 @@
       <c r="A68" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="131"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="14" t="s">
         <v>34</v>
       </c>
@@ -8000,7 +7999,7 @@
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="109"/>
+      <c r="H68" s="119"/>
       <c r="I68" s="15">
         <v>2.23</v>
       </c>
@@ -8010,11 +8009,11 @@
       <c r="K68" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L68" s="101"/>
-      <c r="M68" s="101"/>
+      <c r="L68" s="131"/>
+      <c r="M68" s="131"/>
       <c r="N68" s="48"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
+      <c r="O68" s="136"/>
+      <c r="P68" s="136"/>
       <c r="Q68" s="87" t="s">
         <v>27</v>
       </c>
@@ -8023,7 +8022,7 @@
       <c r="A69" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="131"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="14" t="s">
         <v>34</v>
       </c>
@@ -8035,7 +8034,7 @@
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="109"/>
+      <c r="H69" s="119"/>
       <c r="I69" s="15">
         <v>7.9</v>
       </c>
@@ -8045,11 +8044,11 @@
       <c r="K69" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="131"/>
       <c r="N69" s="48"/>
-      <c r="O69" s="94"/>
-      <c r="P69" s="94"/>
+      <c r="O69" s="136"/>
+      <c r="P69" s="136"/>
       <c r="Q69" s="87" t="s">
         <v>27</v>
       </c>
@@ -8058,7 +8057,7 @@
       <c r="A70" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="131"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="14" t="s">
         <v>34</v>
       </c>
@@ -8070,7 +8069,7 @@
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="109"/>
+      <c r="H70" s="119"/>
       <c r="I70" s="15">
         <v>7.19</v>
       </c>
@@ -8080,11 +8079,11 @@
       <c r="K70" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
+      <c r="L70" s="131"/>
+      <c r="M70" s="131"/>
       <c r="N70" s="48"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="94"/>
+      <c r="O70" s="136"/>
+      <c r="P70" s="136"/>
       <c r="Q70" s="87" t="s">
         <v>27</v>
       </c>
@@ -8093,7 +8092,7 @@
       <c r="A71" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="131"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="14" t="s">
         <v>34</v>
       </c>
@@ -8105,7 +8104,7 @@
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="109"/>
+      <c r="H71" s="119"/>
       <c r="I71" s="15">
         <v>12.2</v>
       </c>
@@ -8115,11 +8114,11 @@
       <c r="K71" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L71" s="101"/>
-      <c r="M71" s="101"/>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
       <c r="N71" s="48"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
+      <c r="O71" s="136"/>
+      <c r="P71" s="136"/>
       <c r="Q71" s="87" t="s">
         <v>27</v>
       </c>
@@ -8128,7 +8127,7 @@
       <c r="A72" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="131"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="14" t="s">
         <v>34</v>
       </c>
@@ -8140,7 +8139,7 @@
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="109"/>
+      <c r="H72" s="119"/>
       <c r="I72" s="15">
         <v>2.48</v>
       </c>
@@ -8150,11 +8149,11 @@
       <c r="K72" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
+      <c r="L72" s="131"/>
+      <c r="M72" s="131"/>
       <c r="N72" s="48"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
+      <c r="O72" s="136"/>
+      <c r="P72" s="136"/>
       <c r="Q72" s="87" t="s">
         <v>27</v>
       </c>
@@ -8163,7 +8162,7 @@
       <c r="A73" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="132"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="14" t="s">
         <v>34</v>
       </c>
@@ -8175,7 +8174,7 @@
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="110"/>
+      <c r="H73" s="120"/>
       <c r="I73" s="15">
         <v>10.3</v>
       </c>
@@ -8185,14 +8184,14 @@
       <c r="K73" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
+      <c r="L73" s="132"/>
+      <c r="M73" s="132"/>
       <c r="N73" s="48">
         <f>SUM(M58:M73)</f>
         <v>3.120000000000001</v>
       </c>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
+      <c r="O73" s="137"/>
+      <c r="P73" s="137"/>
       <c r="Q73" s="87" t="s">
         <v>27</v>
       </c>
@@ -10484,7 +10483,7 @@
       <c r="A125" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="127" t="s">
+      <c r="B125" s="103" t="s">
         <v>152</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -10498,7 +10497,7 @@
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="25"/>
-      <c r="H125" s="111">
+      <c r="H125" s="121">
         <v>1</v>
       </c>
       <c r="I125" s="15">
@@ -10510,11 +10509,11 @@
       <c r="K125" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L125" s="103">
+      <c r="L125" s="133">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M125" s="103">
+      <c r="M125" s="133">
         <f t="shared" si="21"/>
         <v>7.3439999999999998E-3</v>
       </c>
@@ -10529,7 +10528,7 @@
       <c r="A126" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="128" t="s">
+      <c r="B126" s="105" t="s">
         <v>154</v>
       </c>
       <c r="C126" s="14" t="s">
@@ -10543,7 +10542,7 @@
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="25"/>
-      <c r="H126" s="110"/>
+      <c r="H126" s="120"/>
       <c r="I126" s="15">
         <v>12</v>
       </c>
@@ -10553,11 +10552,11 @@
       <c r="K126" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L126" s="104">
+      <c r="L126" s="134">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M126" s="104">
+      <c r="M126" s="134">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10572,7 +10571,7 @@
       <c r="A127" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="127" t="s">
+      <c r="B127" s="103" t="s">
         <v>156</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -10586,7 +10585,7 @@
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="25"/>
-      <c r="H127" s="111">
+      <c r="H127" s="121">
         <v>1</v>
       </c>
       <c r="I127" s="15">
@@ -10598,11 +10597,11 @@
       <c r="K127" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L127" s="103">
+      <c r="L127" s="133">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M127" s="103">
+      <c r="M127" s="133">
         <f t="shared" si="21"/>
         <v>7.3439999999999998E-3</v>
       </c>
@@ -10617,7 +10616,7 @@
       <c r="A128" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B128" s="129" t="s">
+      <c r="B128" s="104" t="s">
         <v>154</v>
       </c>
       <c r="C128" s="14" t="s">
@@ -10631,7 +10630,7 @@
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="25"/>
-      <c r="H128" s="109"/>
+      <c r="H128" s="119"/>
       <c r="I128" s="15">
         <v>6</v>
       </c>
@@ -10641,11 +10640,11 @@
       <c r="K128" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L128" s="105">
+      <c r="L128" s="135">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M128" s="105">
+      <c r="M128" s="135">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10660,7 +10659,7 @@
       <c r="A129" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B129" s="129" t="s">
+      <c r="B129" s="104" t="s">
         <v>154</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -10674,7 +10673,7 @@
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="25"/>
-      <c r="H129" s="109"/>
+      <c r="H129" s="119"/>
       <c r="I129" s="15">
         <v>100</v>
       </c>
@@ -10684,11 +10683,11 @@
       <c r="K129" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L129" s="105">
+      <c r="L129" s="135">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M129" s="105">
+      <c r="M129" s="135">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10703,7 +10702,7 @@
       <c r="A130" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="128" t="s">
+      <c r="B130" s="105" t="s">
         <v>154</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -10717,7 +10716,7 @@
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="25"/>
-      <c r="H130" s="110"/>
+      <c r="H130" s="120"/>
       <c r="I130" s="15">
         <v>190</v>
       </c>
@@ -10727,11 +10726,11 @@
       <c r="K130" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L130" s="104">
+      <c r="L130" s="134">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M130" s="104">
+      <c r="M130" s="134">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10836,7 +10835,7 @@
       <c r="A133" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="127" t="s">
+      <c r="B133" s="103" t="s">
         <v>164</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -10850,7 +10849,7 @@
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="25"/>
-      <c r="H133" s="111">
+      <c r="H133" s="121">
         <v>1</v>
       </c>
       <c r="I133" s="15">
@@ -10862,11 +10861,11 @@
       <c r="K133" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L133" s="103">
+      <c r="L133" s="133">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M133" s="103">
+      <c r="M133" s="133">
         <f t="shared" si="21"/>
         <v>7.3439999999999998E-3</v>
       </c>
@@ -10881,7 +10880,7 @@
       <c r="A134" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B134" s="128" t="s">
+      <c r="B134" s="105" t="s">
         <v>154</v>
       </c>
       <c r="C134" s="14" t="s">
@@ -10895,7 +10894,7 @@
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="25"/>
-      <c r="H134" s="110"/>
+      <c r="H134" s="120"/>
       <c r="I134" s="15">
         <v>100</v>
       </c>
@@ -10905,11 +10904,11 @@
       <c r="K134" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L134" s="104">
+      <c r="L134" s="134">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M134" s="104">
+      <c r="M134" s="134">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10924,7 +10923,7 @@
       <c r="A135" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="127" t="s">
+      <c r="B135" s="103" t="s">
         <v>167</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -10938,7 +10937,7 @@
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="25"/>
-      <c r="H135" s="111">
+      <c r="H135" s="121">
         <v>1</v>
       </c>
       <c r="I135" s="15">
@@ -10950,11 +10949,11 @@
       <c r="K135" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L135" s="103">
+      <c r="L135" s="133">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M135" s="103">
+      <c r="M135" s="133">
         <f t="shared" si="21"/>
         <v>7.3439999999999998E-3</v>
       </c>
@@ -10969,7 +10968,7 @@
       <c r="A136" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B136" s="128" t="s">
+      <c r="B136" s="105" t="s">
         <v>154</v>
       </c>
       <c r="C136" s="14" t="s">
@@ -10983,7 +10982,7 @@
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="25"/>
-      <c r="H136" s="110"/>
+      <c r="H136" s="120"/>
       <c r="I136" s="15">
         <v>600</v>
       </c>
@@ -10993,11 +10992,11 @@
       <c r="K136" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L136" s="104">
+      <c r="L136" s="134">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M136" s="104">
+      <c r="M136" s="134">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -11057,7 +11056,7 @@
       <c r="A138" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B138" s="127" t="s">
+      <c r="B138" s="103" t="s">
         <v>172</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -11071,7 +11070,7 @@
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="25"/>
-      <c r="H138" s="111">
+      <c r="H138" s="121">
         <v>1</v>
       </c>
       <c r="I138" s="15">
@@ -11083,11 +11082,11 @@
       <c r="K138" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L138" s="103">
+      <c r="L138" s="133">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M138" s="103">
+      <c r="M138" s="133">
         <f t="shared" si="21"/>
         <v>7.3439999999999998E-3</v>
       </c>
@@ -11102,7 +11101,7 @@
       <c r="A139" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B139" s="128" t="s">
+      <c r="B139" s="105" t="s">
         <v>154</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -11116,7 +11115,7 @@
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="25"/>
-      <c r="H139" s="110"/>
+      <c r="H139" s="120"/>
       <c r="I139" s="15">
         <v>20</v>
       </c>
@@ -11126,11 +11125,11 @@
       <c r="K139" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L139" s="104">
+      <c r="L139" s="134">
         <f t="shared" si="20"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="M139" s="104">
+      <c r="M139" s="134">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -11142,8 +11141,8 @@
       </c>
     </row>
     <row r="140" spans="1:17" s="2" customFormat="1" ht="33">
-      <c r="A140" s="50" t="s">
-        <v>111</v>
+      <c r="A140" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="B140" s="62" t="s">
         <v>175</v>
@@ -11214,19 +11213,19 @@
       <c r="A142" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B142" s="127" t="s">
+      <c r="B142" s="103" t="s">
         <v>177</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D142" s="125" t="s">
+      <c r="D142" s="112" t="s">
         <v>179</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="15"/>
-      <c r="G142" s="115"/>
-      <c r="H142" s="111">
+      <c r="G142" s="101"/>
+      <c r="H142" s="121">
         <v>1</v>
       </c>
       <c r="I142" s="15">
@@ -11238,19 +11237,19 @@
       <c r="K142" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L142" s="103">
+      <c r="L142" s="133">
         <f>1.16*0.96*1.32</f>
         <v>1.4699519999999999</v>
       </c>
-      <c r="M142" s="103">
+      <c r="M142" s="133">
         <f>1.16*0.96*1.32</f>
         <v>1.4699519999999999</v>
       </c>
       <c r="N142" s="48"/>
-      <c r="O142" s="96">
+      <c r="O142" s="138">
         <v>651</v>
       </c>
-      <c r="P142" s="96">
+      <c r="P142" s="138">
         <v>651</v>
       </c>
       <c r="Q142" s="87" t="s">
@@ -11261,15 +11260,15 @@
       <c r="A143" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="129"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D143" s="126"/>
+      <c r="D143" s="113"/>
       <c r="E143" s="16"/>
       <c r="F143" s="15"/>
-      <c r="G143" s="116"/>
-      <c r="H143" s="109"/>
+      <c r="G143" s="114"/>
+      <c r="H143" s="119"/>
       <c r="I143" s="15">
         <v>6</v>
       </c>
@@ -11279,11 +11278,11 @@
       <c r="K143" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L143" s="105"/>
-      <c r="M143" s="105"/>
+      <c r="L143" s="135"/>
+      <c r="M143" s="135"/>
       <c r="N143" s="48"/>
-      <c r="O143" s="94"/>
-      <c r="P143" s="94"/>
+      <c r="O143" s="136"/>
+      <c r="P143" s="136"/>
       <c r="Q143" s="87" t="s">
         <v>180</v>
       </c>
@@ -11292,7 +11291,7 @@
       <c r="A144" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="128"/>
+      <c r="B144" s="105"/>
       <c r="C144" s="14" t="s">
         <v>182</v>
       </c>
@@ -11301,8 +11300,8 @@
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="15"/>
-      <c r="G144" s="116"/>
-      <c r="H144" s="110"/>
+      <c r="G144" s="114"/>
+      <c r="H144" s="120"/>
       <c r="I144" s="15">
         <v>168</v>
       </c>
@@ -11312,11 +11311,11 @@
       <c r="K144" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L144" s="104"/>
-      <c r="M144" s="104"/>
+      <c r="L144" s="134"/>
+      <c r="M144" s="134"/>
       <c r="N144" s="48"/>
-      <c r="O144" s="95"/>
-      <c r="P144" s="95"/>
+      <c r="O144" s="137"/>
+      <c r="P144" s="137"/>
       <c r="Q144" s="87" t="s">
         <v>180</v>
       </c>
@@ -11325,7 +11324,7 @@
       <c r="A145" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="127" t="s">
+      <c r="B145" s="103" t="s">
         <v>177</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -11336,8 +11335,8 @@
       </c>
       <c r="E145" s="16"/>
       <c r="F145" s="15"/>
-      <c r="G145" s="116"/>
-      <c r="H145" s="111">
+      <c r="G145" s="114"/>
+      <c r="H145" s="121">
         <v>1</v>
       </c>
       <c r="I145" s="15">
@@ -11349,19 +11348,19 @@
       <c r="K145" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L145" s="103">
+      <c r="L145" s="133">
         <f>0.98*0.81*1.27</f>
         <v>1.0081260000000001</v>
       </c>
-      <c r="M145" s="103">
+      <c r="M145" s="133">
         <f>0.98*0.81*1.27</f>
         <v>1.0081260000000001</v>
       </c>
       <c r="N145" s="48"/>
-      <c r="O145" s="96">
+      <c r="O145" s="138">
         <v>423</v>
       </c>
-      <c r="P145" s="96">
+      <c r="P145" s="138">
         <v>423</v>
       </c>
       <c r="Q145" s="87" t="s">
@@ -11372,7 +11371,7 @@
       <c r="A146" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B146" s="129"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="14" t="s">
         <v>185</v>
       </c>
@@ -11381,8 +11380,8 @@
       </c>
       <c r="E146" s="16"/>
       <c r="F146" s="15"/>
-      <c r="G146" s="116"/>
-      <c r="H146" s="109"/>
+      <c r="G146" s="114"/>
+      <c r="H146" s="119"/>
       <c r="I146" s="15">
         <v>200</v>
       </c>
@@ -11392,11 +11391,11 @@
       <c r="K146" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L146" s="105"/>
-      <c r="M146" s="105"/>
+      <c r="L146" s="135"/>
+      <c r="M146" s="135"/>
       <c r="N146" s="48"/>
-      <c r="O146" s="94"/>
-      <c r="P146" s="94"/>
+      <c r="O146" s="136"/>
+      <c r="P146" s="136"/>
       <c r="Q146" s="87" t="s">
         <v>180</v>
       </c>
@@ -11405,7 +11404,7 @@
       <c r="A147" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B147" s="128"/>
+      <c r="B147" s="105"/>
       <c r="C147" s="14" t="s">
         <v>187</v>
       </c>
@@ -11414,8 +11413,8 @@
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="15"/>
-      <c r="G147" s="116"/>
-      <c r="H147" s="110"/>
+      <c r="G147" s="114"/>
+      <c r="H147" s="120"/>
       <c r="I147" s="15">
         <v>32</v>
       </c>
@@ -11425,11 +11424,11 @@
       <c r="K147" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L147" s="104"/>
-      <c r="M147" s="104"/>
+      <c r="L147" s="134"/>
+      <c r="M147" s="134"/>
       <c r="N147" s="48"/>
-      <c r="O147" s="95"/>
-      <c r="P147" s="95"/>
+      <c r="O147" s="137"/>
+      <c r="P147" s="137"/>
       <c r="Q147" s="87" t="s">
         <v>180</v>
       </c>
@@ -11449,7 +11448,7 @@
       </c>
       <c r="E148" s="16"/>
       <c r="F148" s="15"/>
-      <c r="G148" s="118"/>
+      <c r="G148" s="102"/>
       <c r="H148" s="18">
         <v>1</v>
       </c>
@@ -12311,8 +12310,8 @@
       </c>
     </row>
     <row r="168" spans="1:17" s="2" customFormat="1" ht="66">
-      <c r="A168" s="50" t="s">
-        <v>193</v>
+      <c r="A168" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>228</v>
@@ -12487,8 +12486,8 @@
       </c>
     </row>
     <row r="172" spans="1:17" s="2" customFormat="1" ht="74.099999999999994" customHeight="1">
-      <c r="A172" s="50" t="s">
-        <v>193</v>
+      <c r="A172" s="72" t="s">
+        <v>282</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>235</v>
@@ -12866,8 +12865,8 @@
       </c>
     </row>
     <row r="181" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A181" s="50" t="s">
-        <v>193</v>
+      <c r="A181" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>249</v>
@@ -13066,9 +13065,9 @@
     </row>
     <row r="186" spans="1:17" s="4" customFormat="1">
       <c r="A186" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B186" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B186" s="106" t="s">
         <v>256</v>
       </c>
       <c r="C186" s="15" t="s">
@@ -13077,8 +13076,8 @@
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
-      <c r="G186" s="106"/>
-      <c r="H186" s="112">
+      <c r="G186" s="116"/>
+      <c r="H186" s="122">
         <v>1</v>
       </c>
       <c r="I186" s="67">
@@ -13093,10 +13092,10 @@
       <c r="L186" s="48"/>
       <c r="M186" s="48"/>
       <c r="N186" s="48"/>
-      <c r="O186" s="92">
+      <c r="O186" s="125">
         <v>37.4</v>
       </c>
-      <c r="P186" s="92">
+      <c r="P186" s="125">
         <v>37.4</v>
       </c>
       <c r="Q186" s="88" t="s">
@@ -13105,17 +13104,17 @@
     </row>
     <row r="187" spans="1:17" s="4" customFormat="1">
       <c r="A187" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B187" s="121"/>
+        <v>283</v>
+      </c>
+      <c r="B187" s="107"/>
       <c r="C187" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
-      <c r="G187" s="107"/>
-      <c r="H187" s="113"/>
+      <c r="G187" s="117"/>
+      <c r="H187" s="123"/>
       <c r="I187" s="67">
         <v>666</v>
       </c>
@@ -13128,25 +13127,25 @@
       <c r="L187" s="48"/>
       <c r="M187" s="48"/>
       <c r="N187" s="48"/>
-      <c r="O187" s="97"/>
-      <c r="P187" s="97"/>
+      <c r="O187" s="126"/>
+      <c r="P187" s="126"/>
       <c r="Q187" s="88" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:17" s="4" customFormat="1">
       <c r="A188" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B188" s="120"/>
+        <v>283</v>
+      </c>
+      <c r="B188" s="108"/>
       <c r="C188" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
-      <c r="G188" s="107"/>
-      <c r="H188" s="114"/>
+      <c r="G188" s="117"/>
+      <c r="H188" s="124"/>
       <c r="I188" s="67">
         <v>1000</v>
       </c>
@@ -13159,17 +13158,17 @@
       <c r="L188" s="48"/>
       <c r="M188" s="48"/>
       <c r="N188" s="48"/>
-      <c r="O188" s="93"/>
-      <c r="P188" s="93"/>
+      <c r="O188" s="127"/>
+      <c r="P188" s="127"/>
       <c r="Q188" s="88" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="189" spans="1:17" s="4" customFormat="1">
       <c r="A189" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B189" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B189" s="106" t="s">
         <v>259</v>
       </c>
       <c r="C189" s="15" t="s">
@@ -13178,8 +13177,8 @@
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
-      <c r="G189" s="107"/>
-      <c r="H189" s="112">
+      <c r="G189" s="117"/>
+      <c r="H189" s="122">
         <v>1</v>
       </c>
       <c r="I189" s="67">
@@ -13194,10 +13193,10 @@
       <c r="L189" s="48"/>
       <c r="M189" s="48"/>
       <c r="N189" s="48"/>
-      <c r="O189" s="92">
+      <c r="O189" s="125">
         <v>35.799999999999997</v>
       </c>
-      <c r="P189" s="92">
+      <c r="P189" s="125">
         <v>35.799999999999997</v>
       </c>
       <c r="Q189" s="88" t="s">
@@ -13206,17 +13205,17 @@
     </row>
     <row r="190" spans="1:17" s="4" customFormat="1">
       <c r="A190" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B190" s="120"/>
+        <v>283</v>
+      </c>
+      <c r="B190" s="108"/>
       <c r="C190" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
-      <c r="G190" s="107"/>
-      <c r="H190" s="114"/>
+      <c r="G190" s="117"/>
+      <c r="H190" s="124"/>
       <c r="I190" s="67">
         <v>900</v>
       </c>
@@ -13229,17 +13228,17 @@
       <c r="L190" s="48"/>
       <c r="M190" s="48"/>
       <c r="N190" s="48"/>
-      <c r="O190" s="93"/>
-      <c r="P190" s="93"/>
+      <c r="O190" s="127"/>
+      <c r="P190" s="127"/>
       <c r="Q190" s="88" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:17" s="4" customFormat="1">
       <c r="A191" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B191" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B191" s="106" t="s">
         <v>260</v>
       </c>
       <c r="C191" s="15" t="s">
@@ -13248,8 +13247,8 @@
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
-      <c r="G191" s="107"/>
-      <c r="H191" s="112">
+      <c r="G191" s="117"/>
+      <c r="H191" s="122">
         <v>1</v>
       </c>
       <c r="I191" s="67">
@@ -13264,10 +13263,10 @@
       <c r="L191" s="48"/>
       <c r="M191" s="48"/>
       <c r="N191" s="48"/>
-      <c r="O191" s="92">
-        <v>37</v>
-      </c>
-      <c r="P191" s="92">
+      <c r="O191" s="125">
+        <v>37</v>
+      </c>
+      <c r="P191" s="125">
         <v>37</v>
       </c>
       <c r="Q191" s="88" t="s">
@@ -13276,17 +13275,17 @@
     </row>
     <row r="192" spans="1:17" s="4" customFormat="1">
       <c r="A192" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B192" s="121"/>
+        <v>283</v>
+      </c>
+      <c r="B192" s="107"/>
       <c r="C192" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
-      <c r="G192" s="107"/>
-      <c r="H192" s="113"/>
+      <c r="G192" s="117"/>
+      <c r="H192" s="123"/>
       <c r="I192" s="67">
         <v>1000</v>
       </c>
@@ -13299,25 +13298,25 @@
       <c r="L192" s="48"/>
       <c r="M192" s="48"/>
       <c r="N192" s="48"/>
-      <c r="O192" s="97"/>
-      <c r="P192" s="97"/>
+      <c r="O192" s="126"/>
+      <c r="P192" s="126"/>
       <c r="Q192" s="88" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="193" spans="1:17" s="4" customFormat="1">
       <c r="A193" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B193" s="120"/>
+        <v>283</v>
+      </c>
+      <c r="B193" s="108"/>
       <c r="C193" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
-      <c r="G193" s="107"/>
-      <c r="H193" s="114"/>
+      <c r="G193" s="117"/>
+      <c r="H193" s="124"/>
       <c r="I193" s="67">
         <v>1000</v>
       </c>
@@ -13330,15 +13329,15 @@
       <c r="L193" s="48"/>
       <c r="M193" s="48"/>
       <c r="N193" s="48"/>
-      <c r="O193" s="93"/>
-      <c r="P193" s="93"/>
+      <c r="O193" s="127"/>
+      <c r="P193" s="127"/>
       <c r="Q193" s="88" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:17" s="4" customFormat="1">
       <c r="A194" s="72" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B194" s="73" t="s">
         <v>261</v>
@@ -13349,7 +13348,7 @@
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
-      <c r="G194" s="107"/>
+      <c r="G194" s="117"/>
       <c r="H194" s="74">
         <v>1</v>
       </c>
@@ -13377,7 +13376,7 @@
     </row>
     <row r="195" spans="1:17" s="4" customFormat="1">
       <c r="A195" s="72" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B195" s="73" t="s">
         <v>262</v>
@@ -13388,7 +13387,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
-      <c r="G195" s="107"/>
+      <c r="G195" s="117"/>
       <c r="H195" s="74">
         <v>1</v>
       </c>
@@ -13416,7 +13415,7 @@
     </row>
     <row r="196" spans="1:17" s="4" customFormat="1">
       <c r="A196" s="72" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B196" s="73" t="s">
         <v>263</v>
@@ -13427,7 +13426,7 @@
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
-      <c r="G196" s="107"/>
+      <c r="G196" s="117"/>
       <c r="H196" s="74">
         <v>1</v>
       </c>
@@ -13455,7 +13454,7 @@
     </row>
     <row r="197" spans="1:17" s="4" customFormat="1">
       <c r="A197" s="72" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B197" s="73" t="s">
         <v>264</v>
@@ -13466,7 +13465,7 @@
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
-      <c r="G197" s="107"/>
+      <c r="G197" s="117"/>
       <c r="H197" s="74">
         <v>1</v>
       </c>
@@ -13494,9 +13493,9 @@
     </row>
     <row r="198" spans="1:17" s="4" customFormat="1">
       <c r="A198" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B198" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B198" s="106" t="s">
         <v>265</v>
       </c>
       <c r="C198" s="15" t="s">
@@ -13505,8 +13504,8 @@
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
-      <c r="G198" s="108"/>
-      <c r="H198" s="112">
+      <c r="G198" s="118"/>
+      <c r="H198" s="122">
         <v>1</v>
       </c>
       <c r="I198" s="67">
@@ -13521,10 +13520,10 @@
       <c r="L198" s="48"/>
       <c r="M198" s="48"/>
       <c r="N198" s="48"/>
-      <c r="O198" s="92">
+      <c r="O198" s="125">
         <v>40.299999999999997</v>
       </c>
-      <c r="P198" s="92">
+      <c r="P198" s="125">
         <v>40.299999999999997</v>
       </c>
       <c r="Q198" s="88" t="s">
@@ -13533,17 +13532,17 @@
     </row>
     <row r="199" spans="1:17" s="4" customFormat="1">
       <c r="A199" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B199" s="120"/>
+        <v>283</v>
+      </c>
+      <c r="B199" s="108"/>
       <c r="C199" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
-      <c r="G199" s="106"/>
-      <c r="H199" s="114"/>
+      <c r="G199" s="116"/>
+      <c r="H199" s="124"/>
       <c r="I199" s="67">
         <v>1012</v>
       </c>
@@ -13556,8 +13555,8 @@
       <c r="L199" s="48"/>
       <c r="M199" s="48"/>
       <c r="N199" s="48"/>
-      <c r="O199" s="93"/>
-      <c r="P199" s="93"/>
+      <c r="O199" s="127"/>
+      <c r="P199" s="127"/>
       <c r="Q199" s="88" t="s">
         <v>258</v>
       </c>
@@ -13566,7 +13565,7 @@
       <c r="A200" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B200" s="119" t="s">
+      <c r="B200" s="106" t="s">
         <v>266</v>
       </c>
       <c r="C200" s="15" t="s">
@@ -13575,8 +13574,8 @@
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
-      <c r="G200" s="107"/>
-      <c r="H200" s="112">
+      <c r="G200" s="117"/>
+      <c r="H200" s="122">
         <v>1</v>
       </c>
       <c r="I200" s="67">
@@ -13591,10 +13590,10 @@
       <c r="L200" s="48"/>
       <c r="M200" s="48"/>
       <c r="N200" s="48"/>
-      <c r="O200" s="92">
-        <v>37</v>
-      </c>
-      <c r="P200" s="92">
+      <c r="O200" s="125">
+        <v>37</v>
+      </c>
+      <c r="P200" s="125">
         <v>37</v>
       </c>
       <c r="Q200" s="88" t="s">
@@ -13605,15 +13604,15 @@
       <c r="A201" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B201" s="121"/>
+      <c r="B201" s="107"/>
       <c r="C201" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
-      <c r="G201" s="107"/>
-      <c r="H201" s="113"/>
+      <c r="G201" s="117"/>
+      <c r="H201" s="123"/>
       <c r="I201" s="67">
         <v>1534</v>
       </c>
@@ -13626,8 +13625,8 @@
       <c r="L201" s="48"/>
       <c r="M201" s="48"/>
       <c r="N201" s="48"/>
-      <c r="O201" s="97"/>
-      <c r="P201" s="97"/>
+      <c r="O201" s="126"/>
+      <c r="P201" s="126"/>
       <c r="Q201" s="88" t="s">
         <v>258</v>
       </c>
@@ -13636,15 +13635,15 @@
       <c r="A202" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B202" s="120"/>
+      <c r="B202" s="108"/>
       <c r="C202" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
-      <c r="G202" s="107"/>
-      <c r="H202" s="114"/>
+      <c r="G202" s="117"/>
+      <c r="H202" s="124"/>
       <c r="I202" s="67">
         <v>800</v>
       </c>
@@ -13657,8 +13656,8 @@
       <c r="L202" s="48"/>
       <c r="M202" s="48"/>
       <c r="N202" s="48"/>
-      <c r="O202" s="93"/>
-      <c r="P202" s="93"/>
+      <c r="O202" s="127"/>
+      <c r="P202" s="127"/>
       <c r="Q202" s="88" t="s">
         <v>258</v>
       </c>
@@ -13667,7 +13666,7 @@
       <c r="A203" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B203" s="119" t="s">
+      <c r="B203" s="106" t="s">
         <v>267</v>
       </c>
       <c r="C203" s="15" t="s">
@@ -13676,8 +13675,8 @@
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
-      <c r="G203" s="107"/>
-      <c r="H203" s="112">
+      <c r="G203" s="117"/>
+      <c r="H203" s="122">
         <v>1</v>
       </c>
       <c r="I203" s="67">
@@ -13692,10 +13691,10 @@
       <c r="L203" s="48"/>
       <c r="M203" s="48"/>
       <c r="N203" s="48"/>
-      <c r="O203" s="98">
+      <c r="O203" s="128">
         <v>33.299999999999997</v>
       </c>
-      <c r="P203" s="98">
+      <c r="P203" s="128">
         <v>33.299999999999997</v>
       </c>
       <c r="Q203" s="88" t="s">
@@ -13706,15 +13705,15 @@
       <c r="A204" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B204" s="120"/>
+      <c r="B204" s="108"/>
       <c r="C204" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
-      <c r="G204" s="107"/>
-      <c r="H204" s="114"/>
+      <c r="G204" s="117"/>
+      <c r="H204" s="124"/>
       <c r="I204" s="67">
         <v>2521</v>
       </c>
@@ -13727,8 +13726,8 @@
       <c r="L204" s="48"/>
       <c r="M204" s="48"/>
       <c r="N204" s="48"/>
-      <c r="O204" s="99"/>
-      <c r="P204" s="99"/>
+      <c r="O204" s="129"/>
+      <c r="P204" s="129"/>
       <c r="Q204" s="88" t="s">
         <v>258</v>
       </c>
@@ -13746,7 +13745,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
-      <c r="G205" s="107"/>
+      <c r="G205" s="117"/>
       <c r="H205" s="74">
         <v>1</v>
       </c>
@@ -13776,7 +13775,7 @@
       <c r="A206" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B206" s="119" t="s">
+      <c r="B206" s="106" t="s">
         <v>269</v>
       </c>
       <c r="C206" s="15" t="s">
@@ -13785,8 +13784,8 @@
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
-      <c r="G206" s="107"/>
-      <c r="H206" s="112">
+      <c r="G206" s="117"/>
+      <c r="H206" s="122">
         <v>1</v>
       </c>
       <c r="I206" s="67">
@@ -13801,10 +13800,10 @@
       <c r="L206" s="48"/>
       <c r="M206" s="48"/>
       <c r="N206" s="48"/>
-      <c r="O206" s="92">
+      <c r="O206" s="125">
         <v>22.6</v>
       </c>
-      <c r="P206" s="92">
+      <c r="P206" s="125">
         <v>22.6</v>
       </c>
       <c r="Q206" s="88" t="s">
@@ -13815,15 +13814,15 @@
       <c r="A207" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="120"/>
+      <c r="B207" s="108"/>
       <c r="C207" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
-      <c r="G207" s="107"/>
-      <c r="H207" s="114"/>
+      <c r="G207" s="117"/>
+      <c r="H207" s="124"/>
       <c r="I207" s="67">
         <v>1000</v>
       </c>
@@ -13836,8 +13835,8 @@
       <c r="L207" s="48"/>
       <c r="M207" s="48"/>
       <c r="N207" s="48"/>
-      <c r="O207" s="93"/>
-      <c r="P207" s="93"/>
+      <c r="O207" s="127"/>
+      <c r="P207" s="127"/>
       <c r="Q207" s="88" t="s">
         <v>258</v>
       </c>
@@ -13855,7 +13854,7 @@
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
-      <c r="G208" s="108"/>
+      <c r="G208" s="118"/>
       <c r="H208" s="74">
         <v>1</v>
       </c>
@@ -13885,7 +13884,7 @@
       <c r="A209" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B209" s="119" t="s">
+      <c r="B209" s="106" t="s">
         <v>271</v>
       </c>
       <c r="C209" s="15" t="s">
@@ -13894,8 +13893,8 @@
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
-      <c r="G209" s="106"/>
-      <c r="H209" s="112">
+      <c r="G209" s="116"/>
+      <c r="H209" s="122">
         <v>1</v>
       </c>
       <c r="I209" s="67">
@@ -13910,10 +13909,10 @@
       <c r="L209" s="48"/>
       <c r="M209" s="48"/>
       <c r="N209" s="48"/>
-      <c r="O209" s="92">
+      <c r="O209" s="125">
         <v>36.5</v>
       </c>
-      <c r="P209" s="92">
+      <c r="P209" s="125">
         <v>36.5</v>
       </c>
       <c r="Q209" s="88" t="s">
@@ -13924,15 +13923,15 @@
       <c r="A210" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B210" s="120"/>
+      <c r="B210" s="108"/>
       <c r="C210" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
-      <c r="G210" s="107"/>
-      <c r="H210" s="114"/>
+      <c r="G210" s="117"/>
+      <c r="H210" s="124"/>
       <c r="I210" s="67">
         <v>2200</v>
       </c>
@@ -13945,8 +13944,8 @@
       <c r="L210" s="48"/>
       <c r="M210" s="48"/>
       <c r="N210" s="48"/>
-      <c r="O210" s="93"/>
-      <c r="P210" s="93"/>
+      <c r="O210" s="127"/>
+      <c r="P210" s="127"/>
       <c r="Q210" s="88" t="s">
         <v>258</v>
       </c>
@@ -13955,7 +13954,7 @@
       <c r="A211" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B211" s="119" t="s">
+      <c r="B211" s="106" t="s">
         <v>272</v>
       </c>
       <c r="C211" s="15" t="s">
@@ -13964,8 +13963,8 @@
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
-      <c r="G211" s="107"/>
-      <c r="H211" s="112">
+      <c r="G211" s="117"/>
+      <c r="H211" s="122">
         <v>1</v>
       </c>
       <c r="I211" s="67">
@@ -13980,10 +13979,10 @@
       <c r="L211" s="48"/>
       <c r="M211" s="48"/>
       <c r="N211" s="48"/>
-      <c r="O211" s="92">
+      <c r="O211" s="125">
         <v>33.6</v>
       </c>
-      <c r="P211" s="92">
+      <c r="P211" s="125">
         <v>33.6</v>
       </c>
       <c r="Q211" s="88" t="s">
@@ -13994,15 +13993,15 @@
       <c r="A212" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B212" s="120"/>
+      <c r="B212" s="108"/>
       <c r="C212" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
-      <c r="G212" s="107"/>
-      <c r="H212" s="114"/>
+      <c r="G212" s="117"/>
+      <c r="H212" s="124"/>
       <c r="I212" s="67">
         <v>1556</v>
       </c>
@@ -14015,8 +14014,8 @@
       <c r="L212" s="48"/>
       <c r="M212" s="48"/>
       <c r="N212" s="48"/>
-      <c r="O212" s="93"/>
-      <c r="P212" s="93"/>
+      <c r="O212" s="127"/>
+      <c r="P212" s="127"/>
       <c r="Q212" s="88" t="s">
         <v>258</v>
       </c>
@@ -14025,7 +14024,7 @@
       <c r="A213" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B213" s="119" t="s">
+      <c r="B213" s="106" t="s">
         <v>273</v>
       </c>
       <c r="C213" s="15" t="s">
@@ -14034,8 +14033,8 @@
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
-      <c r="G213" s="107"/>
-      <c r="H213" s="112">
+      <c r="G213" s="117"/>
+      <c r="H213" s="122">
         <v>1</v>
       </c>
       <c r="I213" s="67">
@@ -14050,10 +14049,10 @@
       <c r="L213" s="48"/>
       <c r="M213" s="48"/>
       <c r="N213" s="48"/>
-      <c r="O213" s="92">
+      <c r="O213" s="125">
         <v>38</v>
       </c>
-      <c r="P213" s="92">
+      <c r="P213" s="125">
         <v>38</v>
       </c>
       <c r="Q213" s="88" t="s">
@@ -14064,15 +14063,15 @@
       <c r="A214" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B214" s="120"/>
+      <c r="B214" s="108"/>
       <c r="C214" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
-      <c r="G214" s="107"/>
-      <c r="H214" s="114"/>
+      <c r="G214" s="117"/>
+      <c r="H214" s="124"/>
       <c r="I214" s="67">
         <v>1589</v>
       </c>
@@ -14085,8 +14084,8 @@
       <c r="L214" s="48"/>
       <c r="M214" s="48"/>
       <c r="N214" s="48"/>
-      <c r="O214" s="93"/>
-      <c r="P214" s="93"/>
+      <c r="O214" s="127"/>
+      <c r="P214" s="127"/>
       <c r="Q214" s="88" t="s">
         <v>258</v>
       </c>
@@ -14095,7 +14094,7 @@
       <c r="A215" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B215" s="119" t="s">
+      <c r="B215" s="106" t="s">
         <v>274</v>
       </c>
       <c r="C215" s="15" t="s">
@@ -14104,8 +14103,8 @@
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
-      <c r="G215" s="107"/>
-      <c r="H215" s="112">
+      <c r="G215" s="117"/>
+      <c r="H215" s="122">
         <v>1</v>
       </c>
       <c r="I215" s="67">
@@ -14120,10 +14119,10 @@
       <c r="L215" s="48"/>
       <c r="M215" s="48"/>
       <c r="N215" s="48"/>
-      <c r="O215" s="92">
+      <c r="O215" s="125">
         <v>41</v>
       </c>
-      <c r="P215" s="92">
+      <c r="P215" s="125">
         <v>41</v>
       </c>
       <c r="Q215" s="88" t="s">
@@ -14134,15 +14133,15 @@
       <c r="A216" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B216" s="121"/>
+      <c r="B216" s="107"/>
       <c r="C216" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
-      <c r="G216" s="107"/>
-      <c r="H216" s="113"/>
+      <c r="G216" s="117"/>
+      <c r="H216" s="123"/>
       <c r="I216" s="67">
         <v>1681</v>
       </c>
@@ -14155,8 +14154,8 @@
       <c r="L216" s="48"/>
       <c r="M216" s="48"/>
       <c r="N216" s="48"/>
-      <c r="O216" s="93"/>
-      <c r="P216" s="93"/>
+      <c r="O216" s="127"/>
+      <c r="P216" s="127"/>
       <c r="Q216" s="88" t="s">
         <v>258</v>
       </c>
@@ -14165,15 +14164,15 @@
       <c r="A217" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B217" s="120"/>
+      <c r="B217" s="108"/>
       <c r="C217" s="15" t="s">
         <v>257</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
-      <c r="G217" s="107"/>
-      <c r="H217" s="114"/>
+      <c r="G217" s="117"/>
+      <c r="H217" s="124"/>
       <c r="I217" s="67">
         <v>510</v>
       </c>
@@ -14186,10 +14185,10 @@
       <c r="L217" s="48"/>
       <c r="M217" s="48"/>
       <c r="N217" s="48"/>
-      <c r="O217" s="92">
+      <c r="O217" s="125">
         <v>36.200000000000003</v>
       </c>
-      <c r="P217" s="92">
+      <c r="P217" s="125">
         <v>36.200000000000003</v>
       </c>
       <c r="Q217" s="88" t="s">
@@ -14209,7 +14208,7 @@
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
-      <c r="G218" s="108"/>
+      <c r="G218" s="118"/>
       <c r="H218" s="74">
         <v>1</v>
       </c>
@@ -14229,8 +14228,8 @@
       <c r="N218" s="48">
         <v>3.5</v>
       </c>
-      <c r="O218" s="93"/>
-      <c r="P218" s="93"/>
+      <c r="O218" s="127"/>
+      <c r="P218" s="127"/>
       <c r="Q218" s="88" t="s">
         <v>258</v>
       </c>
@@ -14287,45 +14286,82 @@
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="O206:O207"/>
+    <mergeCell ref="O209:O210"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="O215:O216"/>
+    <mergeCell ref="O217:O218"/>
+    <mergeCell ref="P66:P73"/>
+    <mergeCell ref="P142:P144"/>
+    <mergeCell ref="P145:P147"/>
+    <mergeCell ref="P186:P188"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="P191:P193"/>
+    <mergeCell ref="P198:P199"/>
+    <mergeCell ref="P200:P202"/>
+    <mergeCell ref="P203:P204"/>
+    <mergeCell ref="P206:P207"/>
+    <mergeCell ref="P209:P210"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="P213:P214"/>
+    <mergeCell ref="P215:P216"/>
+    <mergeCell ref="P217:P218"/>
+    <mergeCell ref="O66:O73"/>
+    <mergeCell ref="O142:O144"/>
+    <mergeCell ref="O145:O147"/>
+    <mergeCell ref="O186:O188"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="O191:O193"/>
+    <mergeCell ref="O198:O199"/>
+    <mergeCell ref="O200:O202"/>
+    <mergeCell ref="O203:O204"/>
+    <mergeCell ref="L66:L73"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="L127:L130"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="L142:L144"/>
+    <mergeCell ref="L145:L147"/>
+    <mergeCell ref="M66:M73"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="M127:M130"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="M142:M144"/>
+    <mergeCell ref="M145:M147"/>
+    <mergeCell ref="G199:G208"/>
+    <mergeCell ref="G209:G218"/>
+    <mergeCell ref="H66:H73"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="H186:H188"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="H191:H193"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="H200:H202"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="H206:H207"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="H215:H217"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G142:G148"/>
+    <mergeCell ref="G186:G198"/>
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="B209:B210"/>
     <mergeCell ref="B211:B212"/>
@@ -14350,83 +14386,47 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="D142:D143"/>
     <mergeCell ref="B138:B139"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G142:G148"/>
-    <mergeCell ref="G186:G198"/>
-    <mergeCell ref="G199:G208"/>
-    <mergeCell ref="G209:G218"/>
-    <mergeCell ref="H66:H73"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="H127:H130"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="H186:H188"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="H191:H193"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="H200:H202"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="H206:H207"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="H215:H217"/>
-    <mergeCell ref="O186:O188"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="O191:O193"/>
-    <mergeCell ref="O198:O199"/>
-    <mergeCell ref="O200:O202"/>
-    <mergeCell ref="O203:O204"/>
-    <mergeCell ref="L66:L73"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="L127:L130"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="L142:L144"/>
-    <mergeCell ref="L145:L147"/>
-    <mergeCell ref="M66:M73"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="M127:M130"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="M142:M144"/>
-    <mergeCell ref="M145:M147"/>
-    <mergeCell ref="O206:O207"/>
-    <mergeCell ref="O209:O210"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="O215:O216"/>
-    <mergeCell ref="O217:O218"/>
-    <mergeCell ref="P66:P73"/>
-    <mergeCell ref="P142:P144"/>
-    <mergeCell ref="P145:P147"/>
-    <mergeCell ref="P186:P188"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="P191:P193"/>
-    <mergeCell ref="P198:P199"/>
-    <mergeCell ref="P200:P202"/>
-    <mergeCell ref="P203:P204"/>
-    <mergeCell ref="P206:P207"/>
-    <mergeCell ref="P209:P210"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="P213:P214"/>
-    <mergeCell ref="P215:P216"/>
-    <mergeCell ref="P217:P218"/>
-    <mergeCell ref="O66:O73"/>
-    <mergeCell ref="O142:O144"/>
-    <mergeCell ref="O145:O147"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K3 K221:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yards,Meters,Pcs,Sheets,Rolls,Ctns,Sets,Pairs,Kgs"</formula1>
